--- a/TIM_HORTONS_Extintors_31052022.xlsx
+++ b/TIM_HORTONS_Extintors_31052022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A.Andreu\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{789BE83B-722E-4ABD-AC12-52469B9B25F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC07A65-F7DA-4B54-A31A-B2732668D271}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="990" windowWidth="13545" windowHeight="14370" xr2:uid="{80F94B88-8DCD-442E-8BFC-0A480D683E7B}"/>
+    <workbookView xWindow="-1590" yWindow="4785" windowWidth="18480" windowHeight="12345" xr2:uid="{80F94B88-8DCD-442E-8BFC-0A480D683E7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="29">
   <si>
     <t>Clase/Carga</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>TIM HORTONS SANTO DOMINGO</t>
+  </si>
+  <si>
+    <t>OK</t>
   </si>
 </sst>
 </file>
@@ -681,17 +684,17 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1009,8 +1012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{502EE811-6508-4480-996C-AF14683E9179}">
   <dimension ref="A1:R1048127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:T7"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8:K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1089,6 +1092,9 @@
       <c r="J2" s="33">
         <v>801093</v>
       </c>
+      <c r="K2" s="4" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
@@ -1106,6 +1112,9 @@
       </c>
       <c r="J3" s="33">
         <v>801093</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1128,6 +1137,9 @@
       <c r="J4" s="33">
         <v>801093</v>
       </c>
+      <c r="K4" s="4" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
@@ -1149,6 +1161,9 @@
       <c r="J5" s="33">
         <v>801093</v>
       </c>
+      <c r="K5" s="4" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
@@ -1170,6 +1185,9 @@
       <c r="J6" s="33">
         <v>801093</v>
       </c>
+      <c r="K6" s="4" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
@@ -1188,6 +1206,9 @@
       <c r="J7" s="33">
         <v>801093</v>
       </c>
+      <c r="K7" s="4" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
@@ -1205,6 +1226,9 @@
       </c>
       <c r="J8" s="33">
         <v>807794</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1228,6 +1252,9 @@
       <c r="J9" s="33">
         <v>807794</v>
       </c>
+      <c r="K9" s="4" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="23" t="s">
@@ -1250,6 +1277,9 @@
       <c r="J10" s="33">
         <v>807794</v>
       </c>
+      <c r="K10" s="4" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="23" t="s">
@@ -1271,6 +1301,9 @@
       <c r="I11" s="41"/>
       <c r="J11" s="33">
         <v>807794</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1304,6 +1337,9 @@
       <c r="J12" s="33">
         <v>807800</v>
       </c>
+      <c r="K12" s="4" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="23" t="s">
@@ -1336,6 +1372,9 @@
       <c r="J13" s="33">
         <v>807800</v>
       </c>
+      <c r="K13" s="4" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="23" t="s">
@@ -1368,6 +1407,9 @@
       <c r="J14" s="33">
         <v>807800</v>
       </c>
+      <c r="K14" s="4" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="23" t="s">
@@ -1400,6 +1442,9 @@
       <c r="J15" s="33">
         <v>807800</v>
       </c>
+      <c r="K15" s="4" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="23" t="s">
@@ -1421,8 +1466,11 @@
       <c r="J16" s="33">
         <v>803806</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K16" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="23" t="s">
         <v>21</v>
       </c>
@@ -1442,8 +1490,11 @@
       <c r="J17" s="33">
         <v>803806</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K17" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="23" t="s">
         <v>21</v>
       </c>
@@ -1460,8 +1511,11 @@
       <c r="J18" s="33">
         <v>803806</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K18" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="23" t="s">
         <v>21</v>
       </c>
@@ -1481,8 +1535,11 @@
       <c r="J19" s="33">
         <v>803806</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K19" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C20" s="36"/>
       <c r="D20" s="37"/>
       <c r="E20" s="38"/>
@@ -1490,7 +1547,7 @@
       <c r="G20" s="38"/>
       <c r="H20" s="39"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C21" s="36"/>
       <c r="D21" s="37"/>
       <c r="E21" s="38"/>
@@ -1498,7 +1555,7 @@
       <c r="G21" s="38"/>
       <c r="H21" s="39"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C22" s="36"/>
       <c r="D22" s="37"/>
       <c r="E22" s="38"/>
@@ -1506,7 +1563,7 @@
       <c r="G22" s="38"/>
       <c r="H22" s="39"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C23" s="36"/>
       <c r="D23" s="37"/>
       <c r="E23" s="38"/>
@@ -1514,7 +1571,7 @@
       <c r="G23" s="38"/>
       <c r="H23" s="39"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C24" s="36"/>
       <c r="D24" s="37"/>
       <c r="E24" s="38"/>
@@ -1522,7 +1579,7 @@
       <c r="G24" s="38"/>
       <c r="H24" s="39"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B25" s="13"/>
       <c r="C25" s="36"/>
       <c r="D25" s="37"/>
@@ -1531,7 +1588,7 @@
       <c r="G25" s="38"/>
       <c r="H25" s="39"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B26" s="13"/>
       <c r="C26" s="36"/>
       <c r="D26" s="37"/>
@@ -1540,7 +1597,7 @@
       <c r="G26" s="38"/>
       <c r="H26" s="39"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B27" s="13"/>
       <c r="C27" s="36"/>
       <c r="D27" s="37"/>
@@ -1549,7 +1606,7 @@
       <c r="G27" s="38"/>
       <c r="H27" s="39"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B28" s="13"/>
       <c r="C28" s="36"/>
       <c r="D28" s="37"/>
@@ -1558,7 +1615,7 @@
       <c r="G28" s="38"/>
       <c r="H28" s="39"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B29" s="13"/>
       <c r="C29" s="36"/>
       <c r="D29" s="37"/>
@@ -1567,7 +1624,7 @@
       <c r="G29" s="38"/>
       <c r="H29" s="39"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B30" s="13"/>
       <c r="C30" s="36"/>
       <c r="D30" s="37"/>
@@ -1576,7 +1633,7 @@
       <c r="G30" s="38"/>
       <c r="H30" s="39"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B31" s="13"/>
       <c r="C31" s="36"/>
       <c r="D31" s="37"/>
@@ -1586,7 +1643,7 @@
       <c r="H31" s="39"/>
       <c r="I31" s="39"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B32" s="13"/>
       <c r="C32" s="36"/>
       <c r="D32" s="37"/>
@@ -5152,20 +5209,20 @@
       <c r="I513" s="41"/>
     </row>
     <row r="514" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C514" s="86"/>
-      <c r="D514" s="87"/>
-      <c r="E514" s="86"/>
-      <c r="F514" s="86"/>
-      <c r="G514" s="86"/>
+      <c r="C514" s="88"/>
+      <c r="D514" s="89"/>
+      <c r="E514" s="88"/>
+      <c r="F514" s="88"/>
+      <c r="G514" s="88"/>
       <c r="H514" s="41"/>
       <c r="I514" s="41"/>
     </row>
     <row r="515" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C515" s="86"/>
-      <c r="D515" s="87"/>
-      <c r="E515" s="86"/>
-      <c r="F515" s="86"/>
-      <c r="G515" s="86"/>
+      <c r="C515" s="88"/>
+      <c r="D515" s="89"/>
+      <c r="E515" s="88"/>
+      <c r="F515" s="88"/>
+      <c r="G515" s="88"/>
       <c r="H515" s="41"/>
       <c r="I515" s="41"/>
     </row>
@@ -5954,20 +6011,20 @@
     </row>
     <row r="612" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B612" s="13"/>
-      <c r="C612" s="86"/>
-      <c r="D612" s="87"/>
-      <c r="E612" s="86"/>
-      <c r="F612" s="86"/>
-      <c r="G612" s="86"/>
+      <c r="C612" s="88"/>
+      <c r="D612" s="89"/>
+      <c r="E612" s="88"/>
+      <c r="F612" s="88"/>
+      <c r="G612" s="88"/>
       <c r="H612" s="41"/>
     </row>
     <row r="613" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B613" s="13"/>
-      <c r="C613" s="86"/>
-      <c r="D613" s="87"/>
-      <c r="E613" s="86"/>
-      <c r="F613" s="86"/>
-      <c r="G613" s="86"/>
+      <c r="C613" s="88"/>
+      <c r="D613" s="89"/>
+      <c r="E613" s="88"/>
+      <c r="F613" s="88"/>
+      <c r="G613" s="88"/>
       <c r="H613" s="41"/>
     </row>
     <row r="614" spans="2:9" x14ac:dyDescent="0.25">
@@ -20956,20 +21013,20 @@
     </row>
     <row r="2312" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2312" s="52"/>
-      <c r="C2312" s="86"/>
-      <c r="D2312" s="87"/>
-      <c r="E2312" s="86"/>
-      <c r="F2312" s="86"/>
-      <c r="G2312" s="86"/>
+      <c r="C2312" s="88"/>
+      <c r="D2312" s="89"/>
+      <c r="E2312" s="88"/>
+      <c r="F2312" s="88"/>
+      <c r="G2312" s="88"/>
       <c r="H2312" s="41"/>
     </row>
     <row r="2313" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2313" s="52"/>
-      <c r="C2313" s="86"/>
-      <c r="D2313" s="87"/>
-      <c r="E2313" s="86"/>
-      <c r="F2313" s="86"/>
-      <c r="G2313" s="86"/>
+      <c r="C2313" s="88"/>
+      <c r="D2313" s="89"/>
+      <c r="E2313" s="88"/>
+      <c r="F2313" s="88"/>
+      <c r="G2313" s="88"/>
       <c r="H2313" s="41"/>
     </row>
     <row r="2314" spans="2:8" x14ac:dyDescent="0.25">
@@ -22193,19 +22250,19 @@
     <row r="2462" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2462" s="52"/>
       <c r="C2462" s="36"/>
-      <c r="D2462" s="88"/>
-      <c r="E2462" s="89"/>
-      <c r="F2462" s="89"/>
-      <c r="G2462" s="89"/>
+      <c r="D2462" s="86"/>
+      <c r="E2462" s="87"/>
+      <c r="F2462" s="87"/>
+      <c r="G2462" s="87"/>
       <c r="H2462" s="39"/>
     </row>
     <row r="2463" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2463" s="52"/>
       <c r="C2463" s="36"/>
-      <c r="D2463" s="88"/>
-      <c r="E2463" s="89"/>
-      <c r="F2463" s="89"/>
-      <c r="G2463" s="89"/>
+      <c r="D2463" s="86"/>
+      <c r="E2463" s="87"/>
+      <c r="F2463" s="87"/>
+      <c r="G2463" s="87"/>
       <c r="H2463" s="39"/>
     </row>
     <row r="2464" spans="2:9" x14ac:dyDescent="0.25">
@@ -23172,6 +23229,16 @@
   </sheetData>
   <autoFilter ref="B1:B1048127" xr:uid="{DE705149-B7B7-4C41-A591-EB8B34C75E81}"/>
   <mergeCells count="19">
+    <mergeCell ref="C612:C613"/>
+    <mergeCell ref="D612:D613"/>
+    <mergeCell ref="E612:E613"/>
+    <mergeCell ref="F612:F613"/>
+    <mergeCell ref="G612:G613"/>
+    <mergeCell ref="C514:C515"/>
+    <mergeCell ref="D514:D515"/>
+    <mergeCell ref="E514:E515"/>
+    <mergeCell ref="F514:F515"/>
+    <mergeCell ref="G514:G515"/>
     <mergeCell ref="D2462:D2463"/>
     <mergeCell ref="E2462:E2463"/>
     <mergeCell ref="F2462:F2463"/>
@@ -23181,16 +23248,6 @@
     <mergeCell ref="E2312:E2313"/>
     <mergeCell ref="F2312:F2313"/>
     <mergeCell ref="G2312:G2313"/>
-    <mergeCell ref="C514:C515"/>
-    <mergeCell ref="D514:D515"/>
-    <mergeCell ref="E514:E515"/>
-    <mergeCell ref="F514:F515"/>
-    <mergeCell ref="G514:G515"/>
-    <mergeCell ref="C612:C613"/>
-    <mergeCell ref="D612:D613"/>
-    <mergeCell ref="E612:E613"/>
-    <mergeCell ref="F612:F613"/>
-    <mergeCell ref="G612:G613"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
